--- a/mapping/metadata4Ing_OBI.xlsx
+++ b/mapping/metadata4Ing_OBI.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
-  <si>
-    <t>metadata4Ing_IRI</t>
-  </si>
-  <si>
-    <t>metadata4Ing_DESC</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+  <si>
+    <t>metadata4ing_IRI</t>
+  </si>
+  <si>
+    <t>metadata4ing_DESC</t>
   </si>
   <si>
     <t>OBI_IRI</t>
@@ -28,15 +28,24 @@
     <t>OBI_DESC</t>
   </si>
   <si>
+    <t>OBI_DEF</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/BFO_0000017</t>
   </si>
   <si>
+    <t>http://xmlns.com/foaf/0.1/Group</t>
+  </si>
+  <si>
     <t>http://xmlns.com/foaf/0.1/Organization</t>
   </si>
   <si>
+    <t>http://www.w3.org/ns/dcat#Dataset</t>
+  </si>
+  <si>
     <t>http://www.w3.org/ns/prov#Role</t>
   </si>
   <si>
@@ -46,22 +55,52 @@
     <t>{'iri': 'http://purl.obolibrary.org/obo/BFO_0000017'}</t>
   </si>
   <si>
+    <t>{'label': 'Group', 'prefLabel': 'Group', 'altLabel': None, 'name': 'Group'}</t>
+  </si>
+  <si>
     <t>{'label': 'Organization', 'prefLabel': 'Organisation', 'altLabel': None, 'name': 'Organization'}</t>
   </si>
   <si>
-    <t>{'Role'}</t>
+    <t>{'label': None, 'prefLabel': 'Datensatz', 'altLabel': None, 'name': 'Dataset'}</t>
+  </si>
+  <si>
+    <t>{'label': None, 'prefLabel': 'Role', 'altLabel': None, 'name': 'Role'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302900</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000245</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/APOLLO_SV_00000796</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
   </si>
   <si>
+    <t>{'label': 'Group'}</t>
+  </si>
+  <si>
     <t>{'label': 'Organization'}</t>
   </si>
   <si>
+    <t>{'label': 'Dataset'}</t>
+  </si>
+  <si>
     <t>{'label': 'Role', 'prefLabel': 'Role'}</t>
+  </si>
+  <si>
+    <t>['p is a process if p is an occurrent that has temporal proper parts and for some time t, p specifically depends on some material entity at t. [BFO]', locstr("Process, i.e., a physical entity with a temporal evolution that 'has a meaning for the ontologist'", 'en')]</t>
+  </si>
+  <si>
+    <t>['To say that b is a realizable entity is to say that b is a specifically dependent continuant that inheres in some independent continuant which is not a spatial region and is of a type instances of which are realized in processes of a correlated type.´[BFO]', 'To say that b is a realizable entity is to say that b is a specifically dependent continuant that inheres in some independent continuant which is not a spatial region and is of a type instances of which are realized in processes of a correlated type. (axiom label in BFO2 Reference: [058-002])']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['B is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to be and b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed. [BFO]']</t>
   </si>
 </sst>
 </file>
@@ -432,13 +471,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,73 +490,128 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -528,8 +622,12 @@
     <hyperlink ref="D3" r:id="rId4"/>
     <hyperlink ref="B4" r:id="rId5"/>
     <hyperlink ref="D4" r:id="rId6"/>
-    <hyperlink ref="B5" r:id="rId7" location="Role"/>
+    <hyperlink ref="B5" r:id="rId7"/>
     <hyperlink ref="D5" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId9" location="Dataset"/>
+    <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="B7" r:id="rId11" location="Role"/>
+    <hyperlink ref="D7" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
